--- a/data/SelfDriveRegFriendly.xlsx
+++ b/data/SelfDriveRegFriendly.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreyohl/Documents/GitHub/Spatial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D03CBAD-4554-CA4D-82AA-B04DC2D2FCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65AD0B1-6551-1342-BC58-A2F440000A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="26420" windowHeight="16700" xr2:uid="{A8BD1CA3-F852-D847-95FB-566FB0B44237}"/>
+    <workbookView xWindow="2980" yWindow="2080" windowWidth="26420" windowHeight="16700" xr2:uid="{A8BD1CA3-F852-D847-95FB-566FB0B44237}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Alabama</t>
   </si>
@@ -339,6 +342,15 @@
   </si>
   <si>
     <t>Assumed Adoption</t>
+  </si>
+  <si>
+    <t>ChatGPT Friendliness</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -721,645 +733,657 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A153CB-F575-9C40-839B-BBCD2B838FF1}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>1-(MAX($B$2:$B$51)-B2)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <f>(MAX($B$2:$B$51)-B2)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C51" si="0">(MAX($B$2:$B$51)-B3)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
-        <v>1</v>
+        <f>1-(MAX($B$2:$B$51)-B3)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>1-(MAX($B$2:$B$51)-B4)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-(MAX($B$2:$B$51)-B5)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>1-(MAX($B$2:$B$51)-B6)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B7)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B8)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B9)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>1-(MAX($B$2:$B$51)-B10)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B11)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B12)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B13)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-(MAX($B$2:$B$51)-B14)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B15)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <f>1-(MAX($B$2:$B$51)-B16)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-(MAX($B$2:$B$51)-B17)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B18)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B19)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <f>1-(MAX($B$2:$B$51)-B20)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B21)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-(MAX($B$2:$B$51)-B22)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>1-(MAX($B$2:$B$51)-B23)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>1-(MAX($B$2:$B$51)-B24)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
         <v>0.5</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B25)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.5</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>1-(MAX($B$2:$B$51)-B26)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
         <v>0.5</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <f>1-(MAX($B$2:$B$51)-B27)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.5</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <f>1-(MAX($B$2:$B$51)-B28)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.5</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>1-(MAX($B$2:$B$51)-B29)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B30)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.5</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B31)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.5</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B32)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.5</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>1-(MAX($B$2:$B$51)-B33)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
         <v>0.5</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B34)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <f>1-(MAX($B$2:$B$51)-B35)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B36)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-(MAX($B$2:$B$51)-B37)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B38)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f>1-(MAX($B$2:$B$51)-B39)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B40)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-(MAX($B$2:$B$51)-B41)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>1-(MAX($B$2:$B$51)-B42)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B43)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,8 +1394,8 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f>1-(MAX($B$2:$B$51)-B44)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D44" t="s">
         <v>85</v>
@@ -1385,8 +1409,8 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f>1-(MAX($B$2:$B$51)-B45)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D45" t="s">
         <v>87</v>
@@ -1394,95 +1418,100 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f>1-(MAX($B$2:$B$51)-B46)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1-(MAX($B$2:$B$51)-B47)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f>1-(MAX($B$2:$B$51)-B48)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>1-(MAX($B$2:$B$51)-B49)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1-(MAX($B$2:$B$51)-B50)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <f>1-(MAX($B$2:$B$51)-B51)/(MAX($B$2:$B$51) - MIN($B$2:$B$51))</f>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D51" xr:uid="{B3A153CB-F575-9C40-839B-BBCD2B838FF1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+      <sortCondition ref="C1:C51"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>